--- a/Data/aearep-333/candidatepackages.xlsx
+++ b/Data/aearep-333/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="191">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,30 +22,27 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>winsor</t>
   </si>
   <si>
+    <t>ivreg2</t>
+  </si>
+  <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>ivreg2</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
+    <t>diff</t>
+  </si>
+  <si>
     <t>spmap</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>ivreghdfe</t>
   </si>
   <si>
@@ -55,33 +52,27 @@
     <t>hhi</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>mean2</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
+    <t>white</t>
   </si>
   <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>median</t>
   </si>
   <si>
@@ -94,27 +85,21 @@
     <t>map</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>mol</t>
+  </si>
+  <si>
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>spike</t>
   </si>
   <si>
-    <t>mol</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -167,12 +152,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>masterfile.do</t>
@@ -651,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -659,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -685,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -697,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -709,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -721,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -733,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -745,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -757,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -769,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -781,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -793,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>291</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -805,7 +784,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -817,10 +796,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D14"/>
     </row>
@@ -829,10 +808,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>279</v>
+        <v>529</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D15"/>
     </row>
@@ -841,10 +820,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>316</v>
+        <v>563</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D16"/>
     </row>
@@ -853,10 +832,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C17">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D17"/>
     </row>
@@ -865,10 +844,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>565</v>
+        <v>712</v>
       </c>
       <c r="C18">
-        <v>0.18733422458171844</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D18"/>
     </row>
@@ -877,10 +856,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>566</v>
+        <v>746</v>
       </c>
       <c r="C19">
-        <v>0.18766577541828156</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D19"/>
     </row>
@@ -889,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>698</v>
+        <v>955</v>
       </c>
       <c r="C20">
-        <v>0.23143236339092255</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D20"/>
     </row>
@@ -901,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>745</v>
+        <v>1414</v>
       </c>
       <c r="C21">
-        <v>0.24701590836048126</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D21"/>
     </row>
@@ -913,10 +892,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>811</v>
+        <v>1428</v>
       </c>
       <c r="C22">
-        <v>0.26889920234680176</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D22"/>
     </row>
@@ -925,10 +904,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1133</v>
+        <v>1564</v>
       </c>
       <c r="C23">
-        <v>0.37566313147544861</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D23"/>
     </row>
@@ -937,10 +916,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1423</v>
+        <v>1658</v>
       </c>
       <c r="C24">
-        <v>0.47181698679924011</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D24"/>
     </row>
@@ -949,10 +928,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1553</v>
+        <v>1678</v>
       </c>
       <c r="C25">
-        <v>0.51492041349411011</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D25"/>
     </row>
@@ -961,10 +940,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1565</v>
+        <v>1768</v>
       </c>
       <c r="C26">
-        <v>0.51889920234680176</v>
+        <v>0.58446282148361206</v>
       </c>
       <c r="D26"/>
     </row>
@@ -973,10 +952,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1621</v>
+        <v>1796</v>
       </c>
       <c r="C27">
-        <v>0.53746682405471802</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D27"/>
     </row>
@@ -985,10 +964,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1793</v>
+        <v>2202</v>
       </c>
       <c r="C28">
-        <v>0.59449601173400879</v>
+        <v>0.72793388366699219</v>
       </c>
       <c r="D28"/>
     </row>
@@ -997,72 +976,12 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1798</v>
+        <v>2436</v>
       </c>
       <c r="C29">
-        <v>0.5961538553237915</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1817</v>
-      </c>
-      <c r="C30">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1859</v>
-      </c>
-      <c r="C31">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1894</v>
-      </c>
-      <c r="C32">
-        <v>0.62798410654067993</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2198</v>
-      </c>
-      <c r="C33">
-        <v>0.72877985239028931</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2424</v>
-      </c>
-      <c r="C34">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D34"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1070,1191 +989,1175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B146"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B135" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B136" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B139" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>49</v>
-      </c>
-      <c r="B147" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>49</v>
-      </c>
-      <c r="B148" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aearep-333/candidatepackages.xlsx
+++ b/Data/aearep-333/candidatepackages.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rschfs1x\userRS\K-Q\lr397_RS\Documents\AEA_workspace\FunPackageSearch\Statapackagesearch\Data\aearep-333\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB61C40F-E50F-460E-8E39-3BE7D7B3D246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Missing packages" sheetId="1" r:id="rId2"/>
-    <sheet name="Programs parsed" sheetId="2" r:id="rId4"/>
+    <sheet name="Missing packages" sheetId="1" r:id="rId1"/>
+    <sheet name="Programs parsed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -592,7 +599,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -625,15 +632,325 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -657,9 +974,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -669,9 +988,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -681,9 +1002,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -693,9 +1016,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -705,9 +1030,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -717,9 +1044,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -729,9 +1058,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -741,9 +1072,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -753,9 +1086,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -765,9 +1100,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -777,9 +1114,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -789,9 +1128,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -801,9 +1142,11 @@
       <c r="C14">
         <v>0.16495867073535919</v>
       </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -813,9 +1156,11 @@
       <c r="C15">
         <v>0.17487603425979614</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -825,9 +1170,11 @@
       <c r="C16">
         <v>0.18611569702625275</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -837,9 +1184,11 @@
       <c r="C17">
         <v>0.20198346674442291</v>
       </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -849,9 +1198,11 @@
       <c r="C18">
         <v>0.2353719025850296</v>
       </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -861,9 +1212,11 @@
       <c r="C19">
         <v>0.24661156535148621</v>
       </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -873,9 +1226,11 @@
       <c r="C20">
         <v>0.31570246815681458</v>
       </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -885,9 +1240,11 @@
       <c r="C21">
         <v>0.46743801236152649</v>
       </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -897,9 +1254,11 @@
       <c r="C22">
         <v>0.47206610441207886</v>
       </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -909,9 +1268,11 @@
       <c r="C23">
         <v>0.51702481508255005</v>
       </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -921,9 +1282,11 @@
       <c r="C24">
         <v>0.54809916019439697</v>
       </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -933,9 +1296,11 @@
       <c r="C25">
         <v>0.5547107458114624</v>
       </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -945,9 +1310,11 @@
       <c r="C26">
         <v>0.58446282148361206</v>
       </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -957,9 +1324,11 @@
       <c r="C27">
         <v>0.5937190055847168</v>
       </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -969,9 +1338,11 @@
       <c r="C28">
         <v>0.72793388366699219</v>
       </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -981,18 +1352,27 @@
       <c r="C29">
         <v>0.80528926849365234</v>
       </c>
-      <c r="D29"/>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="113.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1000,7 +1380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1008,7 +1388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1016,7 +1396,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1032,7 +1412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1048,7 +1428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1056,7 +1436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1064,7 +1444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1072,7 +1452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1080,7 +1460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1088,7 +1468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1096,7 +1476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1104,7 +1484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1112,7 +1492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1120,7 +1500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1128,7 +1508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1136,7 +1516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1532,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1160,7 +1540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1168,7 +1548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1176,7 +1556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1184,7 +1564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1192,7 +1572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1200,7 +1580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1208,7 +1588,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1216,7 +1596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1224,7 +1604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1232,7 +1612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1240,7 +1620,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1248,7 +1628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1256,7 +1636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1264,7 +1644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1272,7 +1652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1280,7 +1660,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1288,7 +1668,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1296,7 +1676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1304,7 +1684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1312,7 +1692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1320,7 +1700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1328,7 +1708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1336,7 +1716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1344,7 +1724,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1360,7 +1740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1376,7 +1756,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1384,7 +1764,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -1392,7 +1772,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1400,7 +1780,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1788,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -1416,7 +1796,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -1424,7 +1804,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -1432,7 +1812,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -1448,7 +1828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -1456,7 +1836,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +1844,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1860,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -1488,7 +1868,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -1496,7 +1876,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -1504,7 +1884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -1512,7 +1892,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -1520,7 +1900,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1528,7 +1908,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -1536,7 +1916,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -1544,7 +1924,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -1552,7 +1932,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -1560,7 +1940,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -1568,7 +1948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -1576,7 +1956,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -1584,7 +1964,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -1592,7 +1972,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -1600,7 +1980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -1608,7 +1988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -1616,7 +1996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1624,7 +2004,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -1632,7 +2012,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -1640,7 +2020,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -1648,7 +2028,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -1656,7 +2036,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -1664,7 +2044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -1672,7 +2052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -1680,7 +2060,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -1688,7 +2068,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>39</v>
       </c>
@@ -1696,7 +2076,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>39</v>
       </c>
@@ -1704,7 +2084,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +2092,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -1720,7 +2100,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -1728,7 +2108,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -1736,7 +2116,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -1744,7 +2124,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +2132,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -1760,7 +2140,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -1768,7 +2148,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -1776,7 +2156,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -1784,7 +2164,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -1792,7 +2172,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -1800,7 +2180,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -1808,7 +2188,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -1816,7 +2196,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -1824,7 +2204,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -1832,7 +2212,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -1840,7 +2220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -1848,7 +2228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -1856,7 +2236,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -1864,7 +2244,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -1872,7 +2252,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -1880,7 +2260,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -1888,7 +2268,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -1896,7 +2276,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -1904,7 +2284,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>41</v>
       </c>
@@ -1912,7 +2292,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -1920,7 +2300,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -1928,7 +2308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +2316,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -1944,7 +2324,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -1952,7 +2332,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -1960,7 +2340,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -1968,7 +2348,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -1976,7 +2356,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -1984,7 +2364,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>41</v>
       </c>
@@ -1992,7 +2372,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -2000,7 +2380,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2388,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>42</v>
       </c>
@@ -2016,7 +2396,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -2024,7 +2404,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>42</v>
       </c>
@@ -2032,7 +2412,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2420,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>43</v>
       </c>
@@ -2048,7 +2428,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>43</v>
       </c>
@@ -2056,7 +2436,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>43</v>
       </c>
@@ -2064,7 +2444,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>43</v>
       </c>
@@ -2072,7 +2452,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -2080,7 +2460,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -2088,7 +2468,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -2096,7 +2476,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>44</v>
       </c>
@@ -2104,7 +2484,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>44</v>
       </c>
@@ -2112,7 +2492,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>44</v>
       </c>
@@ -2120,7 +2500,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>44</v>
       </c>
@@ -2128,7 +2508,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>44</v>
       </c>
@@ -2136,7 +2516,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>44</v>
       </c>
@@ -2144,7 +2524,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>44</v>
       </c>
@@ -2152,7 +2532,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>44</v>
       </c>
@@ -2161,5 +2541,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>